--- a/my-app/data/annData.xlsx
+++ b/my-app/data/annData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai K\Nest\my-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai K\FON\my-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="304">
   <si>
     <t>AGENT CODE</t>
   </si>
@@ -942,6 +942,9 @@
   <si>
     <t>REAL ESTATE BROKER</t>
   </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
 </sst>
 </file>
 
@@ -1022,7 +1025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1058,11 +1061,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1150,6 +1173,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -35743,8 +35770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -35764,7 +35791,7 @@
     <col min="14" max="28" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35804,8 +35831,11 @@
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N1" s="45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -35842,8 +35872,11 @@
       <c r="M2" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N2" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -35880,8 +35913,11 @@
       <c r="M3" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N3" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -35916,8 +35952,11 @@
         <v>28806</v>
       </c>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N4" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -35954,8 +35993,11 @@
       <c r="M5" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N5" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -35990,8 +36032,11 @@
         <v>28704</v>
       </c>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N6" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -36028,8 +36073,11 @@
       <c r="M7" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N7" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -36066,8 +36114,11 @@
       <c r="M8" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N8" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -36102,8 +36153,11 @@
         <v>28704</v>
       </c>
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N9" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -36140,8 +36194,11 @@
       <c r="M10" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N10" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -36178,8 +36235,11 @@
       <c r="M11" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N11" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -36216,8 +36276,11 @@
       <c r="M12" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N12" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -36254,8 +36317,11 @@
       <c r="M13" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N13" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -36292,8 +36358,11 @@
       <c r="M14" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N14" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -36328,8 +36397,11 @@
         <v>28716</v>
       </c>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N15" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -36364,8 +36436,11 @@
         <v>28801</v>
       </c>
       <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N16" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -36400,8 +36475,11 @@
         <v>28804</v>
       </c>
       <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N17" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -36436,8 +36514,11 @@
         <v>28815</v>
       </c>
       <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N18" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -36472,8 +36553,11 @@
         <v>28704</v>
       </c>
       <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N19" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -36508,8 +36592,11 @@
         <v>71111</v>
       </c>
       <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N20" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
@@ -36544,8 +36631,11 @@
         <v>30342</v>
       </c>
       <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N21" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -36580,8 +36670,11 @@
         <v>28732</v>
       </c>
       <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N22" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -36616,8 +36709,11 @@
         <v>28804</v>
       </c>
       <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N23" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -36652,8 +36748,11 @@
         <v>28701</v>
       </c>
       <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N24" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -36688,8 +36787,11 @@
         <v>27613</v>
       </c>
       <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="N25" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
@@ -36724,8 +36826,11 @@
         <v>28704</v>
       </c>
       <c r="M26" s="15"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="N26" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -36760,8 +36865,11 @@
         <v>28803</v>
       </c>
       <c r="M27" s="15"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="N27" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -36796,8 +36904,11 @@
         <v>27713</v>
       </c>
       <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="N28" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -36832,8 +36943,11 @@
         <v>28805</v>
       </c>
       <c r="M29" s="15"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="N29" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -36868,8 +36982,11 @@
         <v>28704</v>
       </c>
       <c r="M30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="N30" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
@@ -36904,8 +37021,11 @@
         <v>28704</v>
       </c>
       <c r="M31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="N31" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -36940,6 +37060,9 @@
         <v>28806</v>
       </c>
       <c r="M32" s="15"/>
+      <c r="N32" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
@@ -36976,6 +37099,9 @@
         <v>28792</v>
       </c>
       <c r="M33" s="15"/>
+      <c r="N33" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
@@ -37012,6 +37138,9 @@
         <v>28805</v>
       </c>
       <c r="M34" s="15"/>
+      <c r="N34" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
@@ -37048,6 +37177,9 @@
         <v>28805</v>
       </c>
       <c r="M35" s="15"/>
+      <c r="N35" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A36" s="17" t="s">
@@ -37084,7 +37216,9 @@
         <v>28806</v>
       </c>
       <c r="M36" s="21"/>
-      <c r="N36" s="23"/>
+      <c r="N36" s="46" t="s">
+        <v>16</v>
+      </c>
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
@@ -37136,7 +37270,9 @@
         <v>28805</v>
       </c>
       <c r="M37" s="21"/>
-      <c r="N37" s="23"/>
+      <c r="N37" s="46" t="s">
+        <v>16</v>
+      </c>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
@@ -37188,6 +37324,9 @@
         <v>28805</v>
       </c>
       <c r="M38" s="15"/>
+      <c r="N38" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A39" s="4" t="s">
@@ -37224,6 +37363,9 @@
         <v>28805</v>
       </c>
       <c r="M39" s="15"/>
+      <c r="N39" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A40" s="4" t="s">
@@ -37260,6 +37402,9 @@
         <v>28805</v>
       </c>
       <c r="M40" s="15"/>
+      <c r="N40" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
@@ -37296,6 +37441,9 @@
         <v>28805</v>
       </c>
       <c r="M41" s="15"/>
+      <c r="N41" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A42" s="4" t="s">
@@ -37332,6 +37480,9 @@
         <v>28805</v>
       </c>
       <c r="M42" s="15"/>
+      <c r="N42" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A43" s="4" t="s">
@@ -37368,6 +37519,9 @@
         <v>28805</v>
       </c>
       <c r="M43" s="15"/>
+      <c r="N43" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="44" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A44" s="4" t="s">
@@ -37404,6 +37558,9 @@
         <v>28805</v>
       </c>
       <c r="M44" s="15"/>
+      <c r="N44" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="45" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A45" s="4" t="s">
@@ -37440,6 +37597,9 @@
         <v>28805</v>
       </c>
       <c r="M45" s="15"/>
+      <c r="N45" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="46" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A46" s="4" t="s">
@@ -37476,6 +37636,9 @@
         <v>28805</v>
       </c>
       <c r="M46" s="15"/>
+      <c r="N46" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A47" s="4" t="s">
@@ -37512,6 +37675,9 @@
         <v>28804</v>
       </c>
       <c r="M47" s="15"/>
+      <c r="N47" s="46" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A48" s="4" t="s">
@@ -37548,8 +37714,11 @@
         <v>28805</v>
       </c>
       <c r="M48" s="15"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="N48" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
@@ -37584,8 +37753,11 @@
         <v>28804</v>
       </c>
       <c r="M49" s="15"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="N49" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="32"/>
@@ -37600,7 +37772,7 @@
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="32"/>
@@ -37615,7 +37787,7 @@
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="32"/>
@@ -37630,7 +37802,7 @@
       <c r="L52" s="26"/>
       <c r="M52" s="26"/>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="32"/>
@@ -37645,7 +37817,7 @@
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="32"/>
@@ -37660,7 +37832,7 @@
       <c r="L54" s="26"/>
       <c r="M54" s="26"/>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="32"/>
@@ -37675,7 +37847,7 @@
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="32"/>
@@ -37690,7 +37862,7 @@
       <c r="L56" s="26"/>
       <c r="M56" s="26"/>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
       <c r="C57" s="32"/>
@@ -37705,7 +37877,7 @@
       <c r="L57" s="26"/>
       <c r="M57" s="26"/>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
       <c r="C58" s="32"/>
@@ -37720,7 +37892,7 @@
       <c r="L58" s="26"/>
       <c r="M58" s="26"/>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
       <c r="C59" s="32"/>
@@ -37735,7 +37907,7 @@
       <c r="L59" s="26"/>
       <c r="M59" s="26"/>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
       <c r="C60" s="32"/>
@@ -37750,7 +37922,7 @@
       <c r="L60" s="26"/>
       <c r="M60" s="26"/>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
       <c r="C61" s="32"/>
@@ -37765,7 +37937,7 @@
       <c r="L61" s="26"/>
       <c r="M61" s="26"/>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A62" s="26"/>
       <c r="B62" s="26"/>
       <c r="C62" s="32"/>
@@ -37780,7 +37952,7 @@
       <c r="L62" s="26"/>
       <c r="M62" s="26"/>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="32"/>
@@ -37795,7 +37967,7 @@
       <c r="L63" s="26"/>
       <c r="M63" s="26"/>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
       <c r="C64" s="32"/>
